--- a/physics.xlsx
+++ b/physics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,92 @@
   </si>
   <si>
     <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量转化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小明将铁丝快速弯折十余次，铁丝弯折处的温度会升高，以下四个事例中能量转化与之相同的是
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲丙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械能转化为内能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非洲旱季，常用Hippo roller（中间有转轴的塑料桶）运水．如图所示，小华分别用背背、手抱、平拉、滚拉的方式运满桶水，在粗糙的程度相同的水平地面上匀速行走相同路程，她对满桶水做功最多的是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图所示电路闭合开关，甲、乙两灯泡均发光，过一会儿，其中一个灯泡突然熄灭，但两电表指数仍明显偏转，造成此现象的原因可能是
+A．甲灯泡短路  B．乙灯泡短路 C 甲灯泡断路 D．乙灯泡断路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图是小金研究电动机转动是否对小灯泡的亮度有影响的电路图，开始小金先抓住转轴合上开关，观察小灯泡的亮度，接着放开转轴让电动机转动，继续观察小灯泡亮度的变化（已知：小灯泡的电阻为R，电动机线圈电阻为r，电源电压为U），由此请你回答：
+（1）在电动机未转动时，t时间内电流在电路中产生的热量为　   　（填写表达式）；
+（2）在电动机转动时，电流所做的功　   　电流在电路中产生的热量（选填“大于”“等于”或“小于”）；
+（3）小金判断电动机转动后小灯泡会更亮，你认为小金的判断正确吗？并根据学过的知识给以解释．</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【考点】JI：焦耳定律的计算公式及其应用；J3：电功的计算；JE：实际功率．
+【分析】（1）在电动机未转动时，该电路为两个电阻串联的电路，根据焦耳定律的公式写出表达式；
+（2）（3）在电动机转动时，消耗的电能一部分转化为机械能，另一部分转化为内能．
+【解答】解：（1）在电动机未转动时，该电路为两个电阻串联的电路，则此时电路中的电流为：I=；
+根据焦耳定律可知，t时间内电流在电路中产生的热量即电流所做的功为：
+W=Q=UIt=Ut=；
+（2）在电动机转动时，电流所做的功主要有两个利用：一个是转化为电动机的机械能，另一个是转化为灯泡和电动机的内能；故电流在电路中产生的热量要小于电流所做的功；
+（3）电动机转动后，电动机会消耗一部分能量，使得电功转化而成的内能减小，故灯泡的亮度会变暗，所以小金的判断时错误的．
+故答案为：（1）；（2）大于；（3）错误；=；电动机转动后，电动机会消耗一部分能量，使得电功转化而成的内能减小，故灯泡的亮度会变暗．</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如下图甲所示，水平地面上的一物体，受到方向不变的水平推力F的作用，F的大小与时间t的关系和物体速度v与时间t的关系如下图乙所示。则第2秒末时，物体处于__________状态，第4秒末时物体受到的摩擦力为       N。第6秒末到第9秒末，推力F功率是_________W。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静止； 4；8
+【解析】
+试题分析：（1）由图乙的v-t图象知，物体在0～3s速度为0，处于静止状态；3～6s，速度不断增大，是加速直线运动；6～9s速度保持2m/s保持不变，进行匀速直线运动．所以物体在第2s末处于静止状态．
+（2）6～9s速度保持2m/s保持不变，进行匀速直线运动，物体在水平方向上受到推力和滑动摩擦力作用，这两个力是平衡力，大小相等，由F-t图象知，物体在6～9s受到的推力是4N，所以滑动摩擦力是4N．
+物体在3～6s加速直线运动，压力不变，接触面粗糙程度不变，滑动摩擦力不变，所以在第4s末摩擦力大小为4N．
+（3）6s末～9s末运动距离为：v=2m/s，F=4N
+推力做功的功率：P=Fv=4N×2m/s=8W．
+所以答案为：静止；4；8．
+考点：速度、摩擦力、功率
+点评：本题从两个图象分析运动状态、速度大小、推力大小、滑动摩擦力大小等，已知条件都包含在图象中，是中考的热点，很考查学生的读图能力，综合性很强，有一定的难度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,12 +167,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -95,6 +196,211 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5781675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1466850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3590925" y="438150"/>
+          <a:ext cx="5314950" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>400051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6381750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1085851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3248026" y="2200276"/>
+          <a:ext cx="6257924" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4143375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6600824</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1390650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7267575" y="3238499"/>
+          <a:ext cx="2457449" cy="1123951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4419601</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5734051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2095500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1042" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7543801" y="5962650"/>
+          <a:ext cx="1314450" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1314450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5343525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2486025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1055" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4105275" y="5772150"/>
+          <a:ext cx="4362450" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,16 +688,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F1"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="88.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="39.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:7">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -400,17 +713,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="128.25" customHeight="1">
+      <c r="B2" s="3">
+        <v>43120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="92.25" customHeight="1">
+      <c r="B3" s="3">
+        <v>43120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="117" customHeight="1">
+      <c r="B4" s="3">
+        <v>43120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="324">
+      <c r="B5" s="3">
+        <v>43120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="154.5" customHeight="1">
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
